--- a/biology/Médecine/Édouard_Francis_Kirmisson/Édouard_Francis_Kirmisson.xlsx
+++ b/biology/Médecine/Édouard_Francis_Kirmisson/Édouard_Francis_Kirmisson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89douard_Francis_Kirmisson</t>
+          <t>Édouard_Francis_Kirmisson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Francis Kirmisson, né à Nantes (Loire-Atlantique) le 18 juillet 1848 et mort à Binic (Côtes-du-Nord) le 22 septembre 1927, est un médecin, orthopédiste et chirurgien français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89douard_Francis_Kirmisson</t>
+          <t>Édouard_Francis_Kirmisson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Francis Kirmisson est né d'une mère nantaise, Aimée Marie Louise Russeil, et d'un père polonais, Édouard Kirmisson, contrôleur des Messageries générales de France. En 1868, à la fin de sa première année de médecine, il est nommé à l’externat et, en 1869, à l’internat des hôpitaux de Nantes. Après la Guerre franco-allemande de 1870, il poursuit ses études à l'École de médecine de Paris et travaille comme élève externe sous la direction du professeur Noël Guéneau de Mussy à l'hôpital de l'Hôtel-Dieu de Paris. Il obtient son doctorat en 1879 et devient agrégé en 1883. 
 Il travaille ensuite comme chirurgien dans les hôpitaux de Paris et fonde en 1890 la Revue d’orthopédie. À la fin du siècle, il prend la direction du service de chirurgie de l'hôpital Trousseau et devient en 1901 professeur en chirurgie pédiatrique et en chirurgie orthopédique à l'hôpital des Enfants malades. Il est élu membre de l'Académie de médecine en 1903.
